--- a/Documentation/模板/制动器和喷漆模板.xlsx
+++ b/Documentation/模板/制动器和喷漆模板.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="270" windowWidth="14940" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet name="制动器装配计划模板" sheetId="17" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3385" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3386" uniqueCount="397">
   <si>
     <t>合同号</t>
   </si>
@@ -1263,6 +1263,23 @@
     <t>表头信息为生产日期</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>制动器型号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>制动器
+电压</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划下达日期:</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1271,7 +1288,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1394,8 +1411,18 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1410,6 +1437,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1629,7 +1662,7 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="26" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1703,30 +1736,53 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="20" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="36" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="26" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="37">
@@ -2071,22 +2127,23 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:II17"/>
+  <dimension ref="A1:II12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="16" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="15" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" style="15" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="14" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="5" max="5" width="27.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:243" s="2" customFormat="1" ht="30.75" x14ac:dyDescent="0.2">
@@ -2339,19 +2396,21 @@
     <row r="2" spans="1:243" ht="31.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
-      <c r="C2" s="28" t="s">
-        <v>388</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="25" t="s">
+      <c r="C2" s="37" t="s">
+        <v>396</v>
+      </c>
+      <c r="D2" s="36">
+        <v>42241</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="39" t="s">
         <v>389</v>
       </c>
-      <c r="G2" s="26"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:243" s="9" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>383</v>
+      <c r="A3" s="27" t="s">
+        <v>394</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>33</v>
@@ -2362,33 +2421,38 @@
       <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>385</v>
+      <c r="G3" s="29" t="s">
+        <v>395</v>
+      </c>
+      <c r="H3" s="31" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:243" s="9" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
+      <c r="H4" s="33"/>
     </row>
     <row r="5" spans="1:243" s="9" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
+      <c r="E5" s="30"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="12" spans="1:243" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
@@ -2398,19 +2462,8 @@
         <v>391</v>
       </c>
     </row>
-    <row r="17" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M17" s="32"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C2:E2"/>
-  </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M17">
-      <formula1>$R$4:$R$12</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
@@ -2423,8 +2476,8 @@
   </sheetPr>
   <dimension ref="A1:IJ12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2692,12 +2745,12 @@
       <c r="A2" s="20"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="27" t="s">
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="25" t="s">
         <v>389</v>
       </c>
       <c r="H2" s="18"/>
